--- a/resources/reports/feedback_all_prefix_1_Does Melatonin  treat jetlag.xlsx
+++ b/resources/reports/feedback_all_prefix_1_Does Melatonin  treat jetlag.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="feedback_all_prefix_1_Does Mela" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -910,7 +910,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
